--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H2">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I2">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J2">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>663.3410539484283</v>
+        <v>704.9267579074525</v>
       </c>
       <c r="R2">
-        <v>663.3410539484283</v>
+        <v>2819.70703162981</v>
       </c>
       <c r="S2">
-        <v>0.006415100498047555</v>
+        <v>0.006495482802096408</v>
       </c>
       <c r="T2">
-        <v>0.006415100498047555</v>
+        <v>0.00319823393355577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H3">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I3">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J3">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>2558.155820218465</v>
+        <v>2739.657005346126</v>
       </c>
       <c r="R3">
-        <v>2558.155820218465</v>
+        <v>16437.94203207675</v>
       </c>
       <c r="S3">
-        <v>0.02473965176538372</v>
+        <v>0.02524431760073009</v>
       </c>
       <c r="T3">
-        <v>0.02473965176538372</v>
+        <v>0.01864462634418561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H4">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I4">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J4">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>3671.464104278075</v>
+        <v>3770.678442977309</v>
       </c>
       <c r="R4">
-        <v>3671.464104278075</v>
+        <v>22624.07065786386</v>
       </c>
       <c r="S4">
-        <v>0.03550633729621252</v>
+        <v>0.03474456984907118</v>
       </c>
       <c r="T4">
-        <v>0.03550633729621252</v>
+        <v>0.02566120156508625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H5">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I5">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J5">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>3659.08697208203</v>
+        <v>3731.483518582496</v>
       </c>
       <c r="R5">
-        <v>3659.08697208203</v>
+        <v>22388.90111149497</v>
       </c>
       <c r="S5">
-        <v>0.03538663937243314</v>
+        <v>0.03438341182168728</v>
       </c>
       <c r="T5">
-        <v>0.03538663937243314</v>
+        <v>0.02539446207233081</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H6">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I6">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J6">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>498.8753122767005</v>
+        <v>551.4544511806421</v>
       </c>
       <c r="R6">
-        <v>498.8753122767005</v>
+        <v>3308.726707083852</v>
       </c>
       <c r="S6">
-        <v>0.004824569872768198</v>
+        <v>0.00508132634150006</v>
       </c>
       <c r="T6">
-        <v>0.004824569872768198</v>
+        <v>0.003752901245680585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H7">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I7">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J7">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>1195.481450624696</v>
+        <v>1209.029868171353</v>
       </c>
       <c r="R7">
-        <v>1195.481450624696</v>
+        <v>4836.119472685412</v>
       </c>
       <c r="S7">
-        <v>0.01156137344984129</v>
+        <v>0.01114049456604531</v>
       </c>
       <c r="T7">
-        <v>0.01156137344984129</v>
+        <v>0.005485336324225238</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H8">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J8">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>166.0057926474075</v>
+        <v>184.8384585529184</v>
       </c>
       <c r="R8">
-        <v>166.0057926474075</v>
+        <v>1109.03075131751</v>
       </c>
       <c r="S8">
-        <v>0.001605424293811246</v>
+        <v>0.001703176982897442</v>
       </c>
       <c r="T8">
-        <v>0.001605424293811246</v>
+        <v>0.001257910748327054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H9">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J9">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>640.196595888608</v>
+        <v>718.3639607256404</v>
       </c>
       <c r="R9">
-        <v>640.196595888608</v>
+        <v>6465.275646530763</v>
       </c>
       <c r="S9">
-        <v>0.006191272915625472</v>
+        <v>0.006619298672092477</v>
       </c>
       <c r="T9">
-        <v>0.006191272915625472</v>
+        <v>0.007333195871265636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H10">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J10">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>918.8098719042505</v>
+        <v>988.7075263926164</v>
       </c>
       <c r="R10">
-        <v>918.8098719042505</v>
+        <v>8898.367737533548</v>
       </c>
       <c r="S10">
-        <v>0.008885712156332508</v>
+        <v>0.009110354603434786</v>
       </c>
       <c r="T10">
-        <v>0.008885712156332508</v>
+        <v>0.01009291438160089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H11">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J11">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>915.7124069898206</v>
+        <v>978.4302467646714</v>
       </c>
       <c r="R11">
-        <v>915.7124069898206</v>
+        <v>8805.872220882042</v>
       </c>
       <c r="S11">
-        <v>0.008855756903906976</v>
+        <v>0.009015655555162289</v>
       </c>
       <c r="T11">
-        <v>0.008855756903906976</v>
+        <v>0.00998800195745957</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H12">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J12">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>124.8470770107879</v>
+        <v>144.5965691825214</v>
       </c>
       <c r="R12">
-        <v>124.8470770107879</v>
+        <v>1301.369122642692</v>
       </c>
       <c r="S12">
-        <v>0.001207382750011359</v>
+        <v>0.001332371793000541</v>
       </c>
       <c r="T12">
-        <v>0.001207382750011359</v>
+        <v>0.00147606926585981</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H13">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J13">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>299.1776924177141</v>
+        <v>317.0190586049087</v>
       </c>
       <c r="R13">
-        <v>299.1776924177141</v>
+        <v>1902.114351629452</v>
       </c>
       <c r="S13">
-        <v>0.002893315515766056</v>
+        <v>0.002921142969827968</v>
       </c>
       <c r="T13">
-        <v>0.002893315515766056</v>
+        <v>0.002157460543469473</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H14">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I14">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J14">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>1776.746116027534</v>
+        <v>1934.375171988093</v>
       </c>
       <c r="R14">
-        <v>1776.746116027534</v>
+        <v>11606.25103192856</v>
       </c>
       <c r="S14">
-        <v>0.01718272195876849</v>
+        <v>0.01782412218220906</v>
       </c>
       <c r="T14">
-        <v>0.01718272195876849</v>
+        <v>0.01316431298546121</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H15">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I15">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J15">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>6851.970627646027</v>
+        <v>7517.837039746125</v>
       </c>
       <c r="R15">
-        <v>6851.970627646027</v>
+        <v>67660.53335771513</v>
       </c>
       <c r="S15">
-        <v>0.0662646762542103</v>
+        <v>0.0692724182375913</v>
       </c>
       <c r="T15">
-        <v>0.0662646762542103</v>
+        <v>0.07674350963406623</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H16">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I16">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J16">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>9833.945221062306</v>
+        <v>10347.04198674158</v>
       </c>
       <c r="R16">
-        <v>9833.945221062306</v>
+        <v>93123.37788067423</v>
       </c>
       <c r="S16">
-        <v>0.09510303411782169</v>
+        <v>0.09534186711390664</v>
       </c>
       <c r="T16">
-        <v>0.09510303411782169</v>
+        <v>0.1056245715616637</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H17">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I17">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J17">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>9800.793313116936</v>
+        <v>10239.4879922779</v>
       </c>
       <c r="R17">
-        <v>9800.793313116936</v>
+        <v>92155.39193050111</v>
       </c>
       <c r="S17">
-        <v>0.09478242555619919</v>
+        <v>0.09435082072008068</v>
       </c>
       <c r="T17">
-        <v>0.09478242555619919</v>
+        <v>0.1045266399402855</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H18">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I18">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J18">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>1336.227824576288</v>
+        <v>1513.234938070261</v>
       </c>
       <c r="R18">
-        <v>1336.227824576288</v>
+        <v>13619.11444263236</v>
       </c>
       <c r="S18">
-        <v>0.01292251660276523</v>
+        <v>0.01394356421501771</v>
       </c>
       <c r="T18">
-        <v>0.01292251660276523</v>
+        <v>0.01544738991207536</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.734883387419</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H19">
-        <v>124.734883387419</v>
+        <v>387.148232</v>
       </c>
       <c r="I19">
-        <v>0.3172222884937735</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J19">
-        <v>0.3172222884937735</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>3202.07382241342</v>
+        <v>3317.674258989819</v>
       </c>
       <c r="R19">
-        <v>3202.07382241342</v>
+        <v>19906.04555393891</v>
       </c>
       <c r="S19">
-        <v>0.03096691400400854</v>
+        <v>0.03057040444342946</v>
       </c>
       <c r="T19">
-        <v>0.03096691400400854</v>
+        <v>0.02257829968126726</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H20">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I20">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J20">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>2258.29855722523</v>
+        <v>2377.973773189082</v>
       </c>
       <c r="R20">
-        <v>2258.29855722523</v>
+        <v>14267.84263913449</v>
       </c>
       <c r="S20">
-        <v>0.02183976419514955</v>
+        <v>0.02191162070998282</v>
       </c>
       <c r="T20">
-        <v>0.02183976419514955</v>
+        <v>0.01618320555123001</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H21">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I21">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J21">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>8709.06385722634</v>
+        <v>9241.857303850758</v>
       </c>
       <c r="R21">
-        <v>8709.06385722634</v>
+        <v>83176.71573465683</v>
       </c>
       <c r="S21">
-        <v>0.08422442656830383</v>
+        <v>0.08515824446044487</v>
       </c>
       <c r="T21">
-        <v>0.08422442656830383</v>
+        <v>0.09434263622435307</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H22">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I22">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J22">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>12499.2446046314</v>
+        <v>12719.86677189898</v>
       </c>
       <c r="R22">
-        <v>12499.2446046314</v>
+        <v>114478.8009470908</v>
       </c>
       <c r="S22">
-        <v>0.1208788598430741</v>
+        <v>0.1172060429470525</v>
       </c>
       <c r="T22">
-        <v>0.1208788598430741</v>
+        <v>0.1298468180398645</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H23">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I23">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J23">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>12457.10751751077</v>
+        <v>12587.64806803013</v>
       </c>
       <c r="R23">
-        <v>12457.10751751077</v>
+        <v>113288.8326122712</v>
       </c>
       <c r="S23">
-        <v>0.1204713565731275</v>
+        <v>0.1159877258560047</v>
       </c>
       <c r="T23">
-        <v>0.1204713565731275</v>
+        <v>0.1284971043761448</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H24">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I24">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J24">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>1698.386359842802</v>
+        <v>1860.255987315079</v>
       </c>
       <c r="R24">
-        <v>1698.386359842802</v>
+        <v>16742.30388583571</v>
       </c>
       <c r="S24">
-        <v>0.01642491312433045</v>
+        <v>0.01714115776931302</v>
       </c>
       <c r="T24">
-        <v>0.01642491312433045</v>
+        <v>0.01898984675107631</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>158.541844920009</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H25">
-        <v>158.541844920009</v>
+        <v>475.930603</v>
       </c>
       <c r="I25">
-        <v>0.4031992134176544</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J25">
-        <v>0.4031992134176544</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N25">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O25">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P25">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q25">
-        <v>4069.933587052142</v>
+        <v>4078.496503733491</v>
       </c>
       <c r="R25">
-        <v>4069.933587052142</v>
+        <v>24470.97902240094</v>
       </c>
       <c r="S25">
-        <v>0.03935989311366898</v>
+        <v>0.03758093107013145</v>
       </c>
       <c r="T25">
-        <v>0.03935989311366898</v>
+        <v>0.02775604508512965</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H26">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I26">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J26">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N26">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O26">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P26">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q26">
-        <v>554.6052296995508</v>
+        <v>626.711713133275</v>
       </c>
       <c r="R26">
-        <v>554.6052296995508</v>
+        <v>3760.27027879965</v>
       </c>
       <c r="S26">
-        <v>0.005363527953061041</v>
+        <v>0.005774777462858072</v>
       </c>
       <c r="T26">
-        <v>0.005363527953061041</v>
+        <v>0.004265061536569285</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H27">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I27">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J27">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N27">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P27">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q27">
-        <v>2138.819221024434</v>
+        <v>2435.678765145505</v>
       </c>
       <c r="R27">
-        <v>2138.819221024434</v>
+        <v>21921.10888630955</v>
       </c>
       <c r="S27">
-        <v>0.02068429229331894</v>
+        <v>0.02244333805315859</v>
       </c>
       <c r="T27">
-        <v>0.02068429229331894</v>
+        <v>0.02486387185439004</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H28">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I28">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J28">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N28">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O28">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P28">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q28">
-        <v>3069.632402165634</v>
+        <v>3352.303370761345</v>
       </c>
       <c r="R28">
-        <v>3069.632402165634</v>
+        <v>30170.73033685211</v>
       </c>
       <c r="S28">
-        <v>0.02968608717151198</v>
+        <v>0.03088949121016183</v>
       </c>
       <c r="T28">
-        <v>0.02968608717151198</v>
+        <v>0.0342209500778197</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H29">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I29">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J29">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N29">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O29">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P29">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q29">
-        <v>3059.284147367066</v>
+        <v>3317.457313439702</v>
       </c>
       <c r="R29">
-        <v>3059.284147367066</v>
+        <v>29857.11582095732</v>
       </c>
       <c r="S29">
-        <v>0.0295860103043905</v>
+        <v>0.03056840541860317</v>
       </c>
       <c r="T29">
-        <v>0.0295860103043905</v>
+        <v>0.0338652349004842</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H30">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I30">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J30">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N30">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O30">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P30">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q30">
-        <v>417.0989500947805</v>
+        <v>490.2679036334201</v>
       </c>
       <c r="R30">
-        <v>417.0989500947805</v>
+        <v>4412.411132700781</v>
       </c>
       <c r="S30">
-        <v>0.004033719406572663</v>
+        <v>0.004517528524415618</v>
       </c>
       <c r="T30">
-        <v>0.004033719406572663</v>
+        <v>0.005004747959665192</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.9355676810463</v>
+        <v>41.810285</v>
       </c>
       <c r="H31">
-        <v>38.9355676810463</v>
+        <v>125.430855</v>
       </c>
       <c r="I31">
-        <v>0.09901985353386301</v>
+        <v>0.1040979432987182</v>
       </c>
       <c r="J31">
-        <v>0.09901985353386301</v>
+        <v>0.1095349337872956</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N31">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O31">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P31">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q31">
-        <v>999.5164034831595</v>
+        <v>1074.88213691903</v>
       </c>
       <c r="R31">
-        <v>999.5164034831595</v>
+        <v>6449.29282151418</v>
       </c>
       <c r="S31">
-        <v>0.009666216405007885</v>
+        <v>0.009904402629520871</v>
       </c>
       <c r="T31">
-        <v>0.009666216405007885</v>
+        <v>0.007315067458367161</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H32">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I32">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J32">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N32">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O32">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P32">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q32">
-        <v>181.9530590666012</v>
+        <v>191.578498972385</v>
       </c>
       <c r="R32">
-        <v>181.9530590666012</v>
+        <v>766.3139958895401</v>
       </c>
       <c r="S32">
-        <v>0.001759648604426913</v>
+        <v>0.001765282465685525</v>
       </c>
       <c r="T32">
-        <v>0.001759648604426913</v>
+        <v>0.0008691865494962554</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H33">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I33">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J33">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N33">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P33">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q33">
-        <v>701.6967731564035</v>
+        <v>744.5587373380671</v>
       </c>
       <c r="R33">
-        <v>701.6967731564035</v>
+        <v>4467.352424028402</v>
       </c>
       <c r="S33">
-        <v>0.006786034562703208</v>
+        <v>0.006860668032926291</v>
       </c>
       <c r="T33">
-        <v>0.006786034562703208</v>
+        <v>0.005067064753681841</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H34">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I34">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J34">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N34">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O34">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P34">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q34">
-        <v>1007.074899179316</v>
+        <v>1024.760243684723</v>
       </c>
       <c r="R34">
-        <v>1007.074899179316</v>
+        <v>6148.561462108339</v>
       </c>
       <c r="S34">
-        <v>0.009739313809753578</v>
+        <v>0.00944255905235495</v>
       </c>
       <c r="T34">
-        <v>0.009739313809753578</v>
+        <v>0.006973964915533061</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H35">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I35">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J35">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N35">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O35">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P35">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q35">
-        <v>1003.679877791544</v>
+        <v>1014.108208280103</v>
       </c>
       <c r="R35">
-        <v>1003.679877791544</v>
+        <v>6084.649249680615</v>
       </c>
       <c r="S35">
-        <v>0.009706480920448839</v>
+        <v>0.009344406851432086</v>
       </c>
       <c r="T35">
-        <v>0.009706480920448839</v>
+        <v>0.00690147291396621</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H36">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I36">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J36">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N36">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O36">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P36">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q36">
-        <v>136.8404512599467</v>
+        <v>149.869209565028</v>
       </c>
       <c r="R36">
-        <v>136.8404512599467</v>
+        <v>899.2152573901682</v>
       </c>
       <c r="S36">
-        <v>0.001323369391665882</v>
+        <v>0.001380956053055977</v>
       </c>
       <c r="T36">
-        <v>0.001323369391665882</v>
+        <v>0.00101992892080495</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.7738529438299</v>
+        <v>12.780919</v>
       </c>
       <c r="H37">
-        <v>12.7738529438299</v>
+        <v>25.561838</v>
       </c>
       <c r="I37">
-        <v>0.03248610776456904</v>
+        <v>0.03182153341857176</v>
       </c>
       <c r="J37">
-        <v>0.03248610776456904</v>
+        <v>0.02232237221704002</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N37">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O37">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P37">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q37">
-        <v>327.9180531700554</v>
+        <v>328.578997404802</v>
       </c>
       <c r="R37">
-        <v>327.9180531700554</v>
+        <v>1314.315989619208</v>
       </c>
       <c r="S37">
-        <v>0.003171260475570617</v>
+        <v>0.003027660963116928</v>
       </c>
       <c r="T37">
-        <v>0.003171260475570617</v>
+        <v>0.001490754163557707</v>
       </c>
     </row>
   </sheetData>
